--- a/template_package.xlsx
+++ b/template_package.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3C921ED-DDFB-4996-96EE-92784006ED5E}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3940A5-157D-46F5-8325-873979361FF3}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="3140" windowWidth="14400" windowHeight="8260" tabRatio="863" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -177,25 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
-  Permission is hereby granted, free of charge, to any person obtaining a copy  
-  of this software and associated documentation files (the "Software"), to deal 
-  in the Software without restriction, including without limitation the rights  
-  to use, copy, modify, merge, publish, distribute, sublicense, and/or sell     
-  copies of the Software, and to permit persons to whom the Software is         
-  furnished to do so, subject to the following conditions:                      
-  The above copyright notice and this permission notice shall be included       
-  in all copies or substantial portions of the Software.                        
-  THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR    
-  IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,      
-  FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE   
-  AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER        
-  LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
-  OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
-  SOFTWARE. </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>help</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -399,6 +380,25 @@
   <si>
     <t>F1 is an user-defined function to output +1 value. 
 options cmplib=work.f ; is required prior to f1 is used.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	Copyright (c) [YEAR] [Owner Name]
+Permission is hereby granted, free of charge, to any person obtaining a copy   
+of this software and associated documentation files (the "Software"), to deal    
+in the Software without restriction, including without limitation the rights   
+to use, copy, modify, merge, publish, distribute, sublicense, and/or sell   
+copies of the Software, and to permit persons to whom the Software is   
+furnished to do so, subject to the following conditions:                      
+The above copyright notice and this permission notice shall be included       
+in all copies or substantial portions of the Software.                        
+THE SOFTWARE IS PROVIDED "AS IS", WITHOUT WARRANTY OF ANY KIND, EXPRESS OR    
+IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY,      
+FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE   
+AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER        
+LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
+OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
+SOFTWARE. </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,10 +870,10 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="198">
@@ -881,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4723A-BC3E-47B2-B1DD-0A431AEFC984}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -936,40 +936,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="342">
       <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1038,40 +1038,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1141,40 +1141,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="72">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1244,40 +1244,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1346,40 +1346,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1434,7 +1434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -1449,40 +1449,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1551,40 +1551,40 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/template_package.xlsx
+++ b/template_package.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mytakeda-my.sharepoint.com/personal/ryou_nakaya_takeda_com/Documents/仲家/SAS/SASPACer/SASPACer/addcnt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC104856C95E563E5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3940A5-157D-46F5-8325-873979361FF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E05EC0-E9EC-43EA-ADBC-AFCFB3998AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="863" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="description" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,8 @@
             <charset val="128"/>
           </rPr>
           <t>Note:
-Set blank if no SAS packages are used.</t>
+Set blank if no SAS packages are used.
+Example: "baseplus"</t>
         </r>
       </text>
     </comment>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
@@ -185,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Create mylib library under work directory.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>location</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -213,18 +210,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a small dataset.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>smalldataset1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is a bigger dataset.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>biggerdataset</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,34 +222,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>This is mcrOne macro.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macrone</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>macrtwo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is macrTwo macro.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mytest1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mytest2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a test.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>%mcrTwo(m=mcrOne)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -269,34 +234,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testPackage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ReqPackages</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"Baseplus (2.1.0)"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\lazydataset.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\macro2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\test2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data _null_;  length rc0 $ 32767 rc1 rc2 8; lib = """"""""""""""""""""""""""""""""myLib1"""""""""""""""""""""""""""""""";  rc0 = DCREATE(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))/"""""""""""""""""""""""""""""""");  put rc0 = ;  rc1 = LIBNAME(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))/"""""""""""""""""""""""""""""""" !! lib, """"""""""""""""""""""""""""""""BASE"""""""""""""""""""""""""""""""");  rc2 = LIBREF (lib);  if rc2 NE 0 then rc1 = LIBNAME(lib, """"""""""""""""""""""""""""""""%sysfunc(pathname(work))"""""""""""""""""""""""""""""""", """"""""""""""""""""""""""""""""BASE""""""""""""""""""""""""""""""""); run; libname myLib1 LIST;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>value fmtNum low -&lt; 0 = "negative" 0 = "zero" 0 &lt;- high = "positive" other = "missing" ;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,67 +246,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLib1.smallDataset; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a format.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is an informat.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2 is an user-defined function.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mylib</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\infnum.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>infnum</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\f2.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a small dataset1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>data myLib.smallDataset; do n = ., -1, 0, 1; m = put(n, fmtNum.); output; end; run;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\smalldataset1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Create mylib1 library under work directory.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\mylib1.sas</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a bigger dataset1.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>data myLib.biggerDataset; do i = ., -1e6 to 1e6; j = put(i, fmtNum.); k = ranuni(17); output; end; run;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>This is a test2.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -375,11 +268,6 @@
 1. Bartosz Jablonski, "My First SAS Package - a How To", SGF Proceedings, Paper 1079-2021, 
    https://communities.sas.com/t5/SAS-Global-Forum-Proceedings/My-First-SAS-Package-A-How-To/ta-p/726319
    https://communities.sas.com/kntur85557/attachments/kntur85557/proceedings-2021/59/1/Paper_1079-2021.pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1 is an user-defined function to output +1 value. 
-options cmplib=work.f ; is required prior to f1 is used.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -399,6 +287,125 @@
 LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, 
 OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE 
 SOFTWARE. </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create mylib library under work directory. 
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Create mylib1 library under work directory.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\mylib1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\infnum.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\f2.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\smalldataset1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>myPackage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a format.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a small dataset.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1 is an user-defined function to output +1 value. 
+options cmplib=work.f ; is required prior to f1 is used.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a bigger dataset.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is mcrOne macro.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a test.
+(No need to write location column if content is written in body column.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is an informat.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2 is an user-defined function.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a small dataset1.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is a bigger dataset1.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data _null_;
+length rc0 $ 32767 rc1 rc2 8; 
+lib = "myLib"; 
+rc0 = DCREATE(lib, "%sysfunc(pathname(work))/"); 
+put rc0 = ; 
+rc1 = LIBNAME(lib, "%sysfunc(pathname(work))/" !! lib, "BASE"); 
+rc2 = LIBREF (lib); 
+if rc2 NE 0 then rc1 = LIBNAME(lib, "%sysfunc(pathname(work))", "BASE");
+run; 
+libname myLib LIST;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\biggerdataset1.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcrone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcrtwo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This is mcrTwo macro.
+(No need to write body column if content is in a file written in location column, SASPACer reads the file.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\temp\addcnt\mcrtwo.sas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%macro mcrOne(); %put **Hi! This is macro &amp;sysmacroname.**; data _null_; set myLib.smallDataset; p = f1(n); p + f2(n); put (n p) (= fmtNum.); run; %mend mcrOne;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -786,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -809,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,18 +877,16 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" ht="198">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4723A-BC3E-47B2-B1DD-0A431AEFC984}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -909,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +929,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -936,7 +941,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -945,31 +950,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="252">
+      <c r="A2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="342">
-      <c r="A2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1026,7 +1031,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1038,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1047,31 +1052,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1129,7 +1134,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1141,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1150,31 +1155,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="108">
       <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1228,6 +1233,108 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BE0A2C-0CD0-40C2-BB1E-323C67784E39}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428646B3-4EE4-42AB-A9F4-C9FD81F75980}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1244,7 +1351,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1253,133 +1360,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="72">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428646B3-4EE4-42AB-A9F4-C9FD81F75980}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.9140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="36.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="54">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1434,9 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2407937D-6862-4C42-A8B5-594F375883D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1449,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1458,31 +1463,31 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="90">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="90">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1539,7 +1544,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1551,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>16</v>
@@ -1560,32 +1565,26 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
